--- a/output/sample_doc/pipeline_summary.xlsx
+++ b/output/sample_doc/pipeline_summary.xlsx
@@ -26,18 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090EE90"/>
-        <bgColor rgb="0090EE90"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,12 +423,6 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
-    <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,36 +436,6 @@
           <t>Step 1: Initial Translation</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Step 2: Grammar Validation</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Step 3: Style Validation</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Step 4: Accuracy Validation</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Step 5: Hallucination Validation</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Step 6: Consistency Validation</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Step 7: Crossllm Validation</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -486,44 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Értékelés 7.0 Teszt I: Az Ön képességeinek meghatározása szövegek általános fordításában Teszt II: Az Ön képességeinek meghatározása kódokat/címkéket tartalmazó szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Értékelés 7.0
-Teszt I: Az Ön képességeinek meghatározása szövegek általános fordításában.</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Értékelés 7.0
-Teszt I: Az Ön képességeinek értékelése általános szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Értékelés 7.0 Teszt I: Az Ön képességeinek értékelése általános szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Corrected Translation:
-Értékelés 7.0
-Teszt I: Az Ön képességeinek értékelése általános szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Corrected Translation:
-Értékelés 7.0
-Teszt I: Az Ön képességeinek értékelése általános szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>Értékelés 7.0
-Teszt I: Az Ön képességeinek értékelése általános szövegek fordításában.</t>
+          <t>Értékelés 7.0 Teszt I: Az Ön kompetenciájának meghatározása szövegek általános fordításában Teszt II: Az Ön kompetenciájának meghatározása kódokat/címkéket tartalmazó szövegek fordításában.</t>
         </is>
       </c>
     </row>
@@ -533,37 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Értse meg a kontextust, mielőtt lefordítja.</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Teszt II: Az Ön képességeinek meghatározása kódokat/címkéket tartalmazó szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Teszt II: Az Ön képességeinek értékelése kódokat és címkéket tartalmazó szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Teszt II: Az Ön képességeinek értékelése kódokat és címkéket tartalmazó szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Teszt II: Az Ön képességeinek értékelése kódokat és címkéket tartalmazó szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Teszt II: Az Ön képességeinek értékelése kódokat és címkéket tartalmazó szövegek fordításában.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Teszt II: Az Ön képességeinek értékelése kódokat és címkéket tartalmazó szövegek fordításában.</t>
+          <t>Értse meg a kontextust, mielőtt fordítana.</t>
         </is>
       </c>
     </row>
@@ -576,36 +466,6 @@
           <t>Ne távolítsa el a kódokat a végső kimenetből.</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Értse meg a kontextust, mielőtt lefordítja.</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Fontos, hogy mindig értse meg a szöveg kontextusát a fordítás előtt.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Fontos, hogy mindig értse meg a szöveg kontextusát a fordítás előtt.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fontos, hogy mindig értse meg a szöveg kontextusát a fordítás előtt.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Fontos, hogy mindig értse meg a szöveg kontextusát a fordítás előtt.</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>Fontos, hogy mindig megértse a szöveg kontextusát a fordítás előtt.</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -613,38 +473,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Teszt I
-A folyamat egyszerű: egyszerűen másolja le az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, üzenetben, vagy bármilyen más preferált módszerrel.</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Ne távolítsa el a kódokat a végső kimenetből.</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Ne távolítsa el a kódokat a végső szövegből.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ne távolítsa el a kódokat a végső szövegből.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ne távolítsa el a kódokat a végső szövegből.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Ne távolítsa el a kódokat a végső szövegből.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Ne távolítsa el a kódokat a végső szövegből.</t>
+          <t>Teszt I - A folyamat egyszerű: másolja le az egyedi hivatkozási linkjét, és ossza meg barátaival e-mailben, SMS-ben vagy bármilyen más preferált módon.</t>
         </is>
       </c>
     </row>
@@ -654,42 +483,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mondja el, mire van szüksége, és perceken belül ajánlatokat kap helyi szabadúszóktól.</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Teszt I
-A folyamat egyszerű: egyszerűen másolja le az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, üzenetben vagy bármilyen más preferált módszerrel.</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Teszt I
-A folyamat egyszerű: másolja le az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, üzenetben vagy bármely más preferált módon.</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>Teszt I A folyamat egyszerű: másolja le az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, üzenetben vagy bármely más preferált módon.</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>Teszt I
-A folyamat egyszerű: másolja le az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, üzenetben vagy bármely más preferált módon.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Teszt I
-A folyamat egyszerű: másolja le az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, üzenetben vagy bármely más preferált módon.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Teszt I
-A folyamat egyszerű: másolja le az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, üzenetben vagy bármely más preferált módon.</t>
+          <t>- Mondja el, mire van szüksége, és néhány percen belül ajánlatokat kap helyi szabadúszóktól.</t>
         </is>
       </c>
     </row>
@@ -699,37 +493,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ne felejtse el, hogy a közzététel ingyenes!</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Mondja el, mire van szüksége, és perceken belül ajánlatokat kap helyi szabadúszóktól.</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Mondja el, mire van szüksége, és perceken belül ajánlatokat kap a helyi szabadúszóktól.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Mondja el, mire van szüksége, és perceken belül ajánlatokat kap a helyi szabadúszóktól.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Mondja el, mire van szüksége, és perceken belül ajánlatokat kap a helyi szabadúszóktól.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Mondja el, mire van szüksége, és perceken belül ajánlatokat kap a helyi szabadúszóktól.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Mondja el, mire van szüksége, és perceken belül ajánlatokat kap a helyi szabadúszóktól.</t>
+          <t>Ne feledje, hogy a hirdetés ingyenes!</t>
         </is>
       </c>
     </row>
@@ -739,37 +503,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Természetesen!</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Ne felejtse el, hogy a közzététel ingyenes!</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Ne feledje, a közzététel ingyenes!</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ne feledje, a közzététel ingyenes!</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ne feledje, a közzététel ingyenes!</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Ne feledje, a közzététel ingyenes!</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Ne feledje, a közzététel ingyenes!</t>
+          <t>- Természetesen!</t>
         </is>
       </c>
     </row>
@@ -782,36 +516,6 @@
           <t>Bármikor frissítheti tagsági tervét, hogy azonnal további előnyökhöz jusson.</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Természetesen!</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Bármikor frissítheti a tagsági tervét, hogy azonnali hozzáférést kapjon további előnyökhöz.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Bármikor frissítheti a tagsági tervét, hogy azonnali hozzáférést kapjon további előnyökhöz.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bármikor frissítheti a tagsági tervét, hogy azonnali hozzáférést kapjon további előnyökhöz.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Bármikor frissítheti a tagsági tervét, hogy azonnali hozzáférést kapjon további előnyökhöz.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Bármikor frissítheti a tagsági tervét, hogy azonnali hozzáférést kapjon további előnyökhöz.</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -819,37 +523,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagság előnyeit, amíg azok le nem járnak, mielőtt áttérne az alacsonyabb tagsági tervre.</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Bármikor frissítheti tagsági tervét, hogy azonnal további előnyökhöz jusson.</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>Alternatív megoldásként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagsági előnyöket, amíg azok érvényben vannak, mielőtt áttérne az alacsonyabb szintű tagsági tervre.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Alternatív megoldásként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagsági előnyöket, amíg azok érvényben vannak, mielőtt áttérne az alacsonyabb szintű tagsági tervre.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Alternatív megoldásként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagsági előnyöket, amíg azok érvényben vannak, mielőtt áttérne az alacsonyabb szintű tagsági tervre.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Alternatív megoldásként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagsági előnyöket, amíg azok érvényben vannak, mielőtt áttérne az alacsonyabb szintű tagsági tervre.</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagsági előnyöket, amíg azok érvényben vannak, mielőtt áttérne az alacsonyabb szintű tagsági tervre.</t>
+          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagsága előnyeit annak lejáratáig, mielőtt áttérne az alacsonyabb tagsági tervre.</t>
         </is>
       </c>
     </row>
@@ -859,43 +533,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Teszt II
-Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját
-&lt;strong&gt;Ingyenes&lt;/strong&gt; projektet közzétenni – mondja el a szabadúszóinknak, milyen munkára van szüksége, és perceken belül ajánlatokat kap!</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagság előnyeit, amíg azok le nem járnak, mielőtt áttérne az alacsonyabb tagsági tervre.</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Teszt II
-Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját.</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>Teszt II Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját.</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>Teszt II
-Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Teszt II
-Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Teszt II
-Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját.</t>
+          <t>Teszt II - Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját - &lt;strong&gt;Ingyenes&lt;/strong&gt; projektet feladni - mondja el szabadúszóinknak, milyen munkát szeretne, és néhány percen belül ajánlatokat kap!</t>
         </is>
       </c>
     </row>
@@ -905,38 +543,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Az országának módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; ellenőrizze személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Teszt II
-Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját.</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt;Ingyenes&lt;/strong&gt; projekt közzététele – mondja el szabadúszóinknak, milyen munkát szeretne, és perceken belül ajánlatokat kap!</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt;Ingyenes&lt;/strong&gt; projekt közzététele – mondja el szabadúszóinknak, milyen munkát szeretne, és perceken belül ajánlatokat kap!</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt;Ingyenes&lt;/strong&gt; projekt közzététele – mondja el szabadúszóinknak, milyen munkát szeretne, és perceken belül ajánlatokat kap!</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt;Ingyenes&lt;/strong&gt; projekt közzététele – mondja el szabadúszóinknak, milyen munkát szeretne, és perceken belül ajánlatokat kap!</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt;Ingyenes&lt;/strong&gt; projekt közzététele – mondja el szabadúszóinknak, milyen munkát szeretne, és perceken belül ajánlatokat kap!</t>
+          <t>- Az országának módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; ellenőrizze személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
         </is>
       </c>
     </row>
@@ -946,91 +553,9 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ez azért szükséges, hogy ellenőrizhessük a lakcím adatait.</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt;Ingyenes&lt;/strong&gt; projektet közzétenni – mondja el a szabadúszóinknak, milyen munkára van szüksége, és perceken belül ajánlatokat kap!</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>Az országának módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; ellenőrizze személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Az országának módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; ellenőrizze személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Az országának módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; ellenőrizze személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Az országának módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; ellenőrizze személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Az országának módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; ellenőrizze személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>Az országának módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; ellenőrizze személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>Ez szükséges ahhoz, hogy validálhassuk lakcímét.</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>Ez szükséges ahhoz, hogy ellenőrizhessük lakcímét.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Ez szükséges ahhoz, hogy ellenőrizhessük lakcímét.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Ez szükséges ahhoz, hogy ellenőrizhessük lakcímét.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Ez szükséges ahhoz, hogy ellenőrizhessük lakcímét.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Ez azért szükséges, hogy ellenőrizhessük a lakcím adatait.</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+          <t>Ez azért szükséges, hogy ellenőrizhessük címadatait.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/sample_doc/pipeline_summary.xlsx
+++ b/output/sample_doc/pipeline_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Értékelés 7.0 Teszt I: Az Ön kompetenciájának meghatározása szövegek általános fordításában Teszt II: Az Ön kompetenciájának meghatározása kódokat/címkéket tartalmazó szövegek fordításában.</t>
+          <t>Értékelés 7.0 Teszt I: A cél az Ön képességeinek meghatározása szövegek fordításában általánosan.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Értse meg a kontextust, mielőtt fordítana.</t>
+          <t>Teszt II: A cél az Ön képességeinek meghatározása kódokat/jelöléseket tartalmazó szövegek fordításában.</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ne távolítsa el a kódokat a végső kimenetből.</t>
+          <t>Értse meg a szövegkörnyezetet, mielőtt fordítana.</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Teszt I - A folyamat egyszerű: másolja le az egyedi hivatkozási linkjét, és ossza meg barátaival e-mailben, SMS-ben vagy bármilyen más preferált módon.</t>
+          <t>Ne távolítsa el a kódokat a végső eredményből.</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,8 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>- Mondja el, mire van szüksége, és néhány percen belül ajánlatokat kap helyi szabadúszóktól.</t>
+          <t>Teszt I
+A folyamat egyszerű: egyszerűen másolja ki az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, szöveges üzenetben, vagy bármely más preferált módszerrel.</t>
         </is>
       </c>
     </row>
@@ -493,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ne feledje, hogy a hirdetés ingyenes!</t>
+          <t>Mondja el, mire van szüksége, és perceken belül ajánlatokat kapjon helyi szabadúszóktól.</t>
         </is>
       </c>
     </row>
@@ -503,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>- Természetesen!</t>
+          <t>Ne feledje, hogy ingyenes a projekt közzététele!</t>
         </is>
       </c>
     </row>
@@ -513,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bármikor frissítheti tagsági tervét, hogy azonnal további előnyökhöz jusson.</t>
+          <t>Természetesen!</t>
         </is>
       </c>
     </row>
@@ -523,7 +524,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagsága előnyeit annak lejáratáig, mielőtt áttérne az alacsonyabb tagsági tervre.</t>
+          <t>Bármikor frissítheti tagságát, hogy azonnali előnyöket kapjon.</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Teszt II - Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját - &lt;strong&gt;Ingyenes&lt;/strong&gt; projektet feladni - mondja el szabadúszóinknak, milyen munkát szeretne, és néhány percen belül ajánlatokat kap!</t>
+          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti az aktuális tagságának előnyeit annak lejáratáig, mielőtt átváltana az alacsonyabb tagsági tervre.</t>
         </is>
       </c>
     </row>
@@ -543,7 +544,9 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>- Az országának módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; ellenőrizze személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
+          <t>Teszt II
+Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját
+&lt;strong&gt;Ingyenes&lt;/strong&gt; projekt közzététele – mondja el a szabadúszóinknak, milyen munkát szeretne, és perceken belül javaslatokat kap!</t>
         </is>
       </c>
     </row>
@@ -553,7 +556,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ez azért szükséges, hogy ellenőrizhessük címadatait.</t>
+          <t>Az ország módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazolja személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ezt azért kérjük, hogy ellenőrizhessük címadatait.</t>
         </is>
       </c>
     </row>

--- a/output/sample_doc/pipeline_summary.xlsx
+++ b/output/sample_doc/pipeline_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Értékelés 7.0 Teszt I: A cél az Ön képességeinek meghatározása szövegek fordításában általánosan.</t>
+          <t>Értékelés 7.0 Teszt I: A cél, hogy meghatározzuk a szövegek általános fordításában való jártasságát Teszt II: A cél, hogy meghatározzuk a kódok/jelölők alkalmazásával kapcsolatos szövegek fordításában való jártasságát.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Teszt II: A cél az Ön képességeinek meghatározása kódokat/jelöléseket tartalmazó szövegek fordításában.</t>
+          <t>Mielőtt lefordítaná, értse meg a kontextust.</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Értse meg a szövegkörnyezetet, mielőtt fordítana.</t>
+          <t>Ne távolítsa el a kódokat a végső kimenetből.</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ne távolítsa el a kódokat a végső eredményből.</t>
+          <t>Teszt I - A folyamat egyszerű: másolja ki az egyedi hivatkozási linkjét, és ossza meg barátaival e-mailben, szöveges üzenetben vagy bármilyen más kívánt módon.</t>
         </is>
       </c>
     </row>
@@ -483,8 +483,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Teszt I
-A folyamat egyszerű: egyszerűen másolja ki az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, szöveges üzenetben, vagy bármely más preferált módszerrel.</t>
+          <t>- Mondja el, mit kell elvégezni, és perceken belül ajánlatokat kap helyi szabadúszóktól.</t>
         </is>
       </c>
     </row>
@@ -494,7 +493,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mondja el, mire van szüksége, és perceken belül ajánlatokat kapjon helyi szabadúszóktól.</t>
+          <t>Ne feledje, hogy ingyenes a projekt közzététele!</t>
         </is>
       </c>
     </row>
@@ -504,7 +503,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ne feledje, hogy ingyenes a projekt közzététele!</t>
+          <t>- Természetesen!</t>
         </is>
       </c>
     </row>
@@ -514,7 +513,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Természetesen!</t>
+          <t>Bármikor frissítheti tagsági tervét, hogy azonnal további előnyökhöz jusson.</t>
         </is>
       </c>
     </row>
@@ -524,7 +523,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bármikor frissítheti tagságát, hogy azonnali előnyöket kapjon.</t>
+          <t>Alternatívaként visszaállíthatja tagságát, és továbbra is élvezheti a jelenlegi tagsága előnyeit annak lejáratáig, mielőtt áttérne az alacsonyabb tagsági tervre.</t>
         </is>
       </c>
     </row>
@@ -534,7 +533,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti az aktuális tagságának előnyeit annak lejáratáig, mielőtt átváltana az alacsonyabb tagsági tervre.</t>
+          <t>Teszt II - Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját - &lt;strong&gt;Ingyenes&lt;/strong&gt; projektet közzétenni - mondja el szabadúszóinknak, hogy milyen munkát kell elvégezni, és perceken belül javaslatokat kap!</t>
         </is>
       </c>
     </row>
@@ -544,9 +543,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Teszt II
-Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját
-&lt;strong&gt;Ingyenes&lt;/strong&gt; projekt közzététele – mondja el a szabadúszóinknak, milyen munkát szeretne, és perceken belül javaslatokat kap!</t>
+          <t>- A hazája megváltoztatásához szükséges, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazolja személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
         </is>
       </c>
     </row>
@@ -556,17 +553,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Az ország módosításához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazolja személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ezt azért kérjük, hogy ellenőrizhessük címadatait.</t>
+          <t>Ezt azért kérjük, hogy ellenőrizhessük az Ön címadatait.</t>
         </is>
       </c>
     </row>

--- a/output/sample_doc/pipeline_summary.xlsx
+++ b/output/sample_doc/pipeline_summary.xlsx
@@ -456,13 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Értékelés 7.0 Teszt I: A szövegek általános fordításában való jártasságod meghatározása Teszt II: A kódok/címkék tartalmazó szövegek fordításában való jártasságod meghatározása.</t>
+          <t>Értékelés 7.0 Teszt I: A cél az Ön általános szövegfordítási kompetenciájának meghatározása Teszt II: A cél az Ön kódokat/címkéket tartalmazó szövegek fordítási kompetenciájának meghatározása.</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Értékelés 7.0
-Teszt I: A szövegek általános fordításában való jártasságod meghatározása.</t>
+Teszt I: A cél az Ön általános szövegfordítási kompetenciájának meghatározása.</t>
         </is>
       </c>
     </row>
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Értelmezd a kontextust, mielőtt lefordítanád.</t>
+          <t>Mielőtt lefordítaná, értse meg a szövegkörnyezetet.</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Teszt II: A kódok/címkék tartalmazó szövegek fordításában való jártasságod meghatározása.</t>
+          <t>Teszt II: A cél az Ön kódokat/címkéket tartalmazó szövegek fordítási kompetenciájának meghatározása.</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ne távolítsd el a kódokat a végső kimenetből.</t>
+          <t>Ne távolítsa el a kódokat a végső eredményből.</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Értelmezd a kontextust, mielőtt lefordítanád.</t>
+          <t>Mielőtt lefordítaná, értse meg a szövegkörnyezetet.</t>
         </is>
       </c>
     </row>
@@ -502,12 +502,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Teszt I - A folyamat egyszerű: másold ki az egyedi ajánló linkedet, és oszd meg barátaiddal e-mailben, szöveges üzenetben, vagy bármilyen más preferált módon.</t>
+          <t>Teszt I - A folyamat egyszerű: csak másolja le az egyedi hivatkozási linkjét, és ossza meg barátaival e-mailben, szöveges üzenetben vagy bármilyen más preferált módon.</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Ne távolítsd el a kódokat a végső kimenetből.</t>
+          <t>Ne távolítsa el a kódokat a végső eredményből.</t>
         </is>
       </c>
     </row>
@@ -517,12 +517,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>- Mondd el, mire van szükséged, és percek alatt ajánlatokat kapsz helyi szabadúszóktól.</t>
+          <t>Mondja el, mit kell elvégezni, és perceken belül ajánlatokat kap helyi szabadúszóktól.</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Teszt I - A folyamat egyszerű: másold ki az egyedi ajánló linkedet, és oszd meg barátaiddal e-mailben, szöveges üzenetben vagy bármilyen más preferált módon.</t>
+          <t>Teszt I - A folyamat egyszerű: csak másolja le az egyedi hivatkozási linkjét, és ossza meg barátaival e-mailben, szöveges üzenetben vagy bármilyen más preferált módon.</t>
         </is>
       </c>
     </row>
@@ -532,12 +532,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ne felejtsd el, hogy a posztolás ingyenes!</t>
+          <t>Ne feledje, hogy a projekt közzététele ingyenes!</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Mondd el, mire van szükséged, és percek alatt ajánlatokat kapsz helyi szabadúszóktól.</t>
+          <t>Mondja el, mit kell elvégezni, és perceken belül ajánlatokat kap helyi szabadúszóktól.</t>
         </is>
       </c>
     </row>
@@ -547,12 +547,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>- Természetesen!</t>
+          <t>Természetesen!</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Ne felejtsd el, hogy a posztolás ingyenes!</t>
+          <t>Ne feledje, hogy a projekt közzététele ingyenes!</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bármikor frissítheted tagsági csomagodat, hogy azonnali további előnyökhöz juss.</t>
+          <t>Bármikor frissítheti tagságát, hogy azonnal extra előnyökhöz jusson.</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternatívaként vissza is térhetsz az alacsonyabb tagságra, és továbbra is élvezheted a jelenlegi tagság előnyeit annak lejáratáig, mielőtt áttérnél az alacsonyabb tagsági csomagra.</t>
+          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagságának előnyeit annak lejáratáig, mielőtt átváltana egy alacsonyabb tagsági csomagra.</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Bármikor frissítheted tagsági csomagodat, hogy azonnali további előnyökhöz juss.</t>
+          <t>Bármikor frissítheti tagságát, hogy azonnal extra előnyökhöz jusson.</t>
         </is>
       </c>
     </row>
@@ -592,12 +592,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Teszt II - Nézd meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját - &lt;strong&gt;Ingyenes&lt;/strong&gt; projektet posztolni - mondd el szabadúszóinknak, hogy milyen munkát szeretnél, és percek alatt ajánlatokat kapsz!</t>
+          <t>Teszt II - Nézze meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját
+&lt;strong&gt;Ingyenes&lt;/strong&gt; projektet közzétenni – mondja el szabadúszóinknak, hogy milyen munkát kell elvégezni, és perceken belül javaslatokat kap!</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Alternatívaként vissza is térhetsz az alacsonyabb tagságra, és továbbra is élvezheted a jelenlegi tagság előnyeit annak lejáratáig, mielőtt áttérnél az alacsonyabb tagsági csomagra.</t>
+          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagságának előnyeit annak lejáratáig, mielőtt átváltana egy alacsonyabb tagsági csomagra.</t>
         </is>
       </c>
     </row>
@@ -607,12 +608,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>- Ahhoz, hogy megváltoztathasd az országodat, kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazold a személyazonosságodat &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
+          <t>A lakóhelyének megváltoztatásához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazolja személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Teszt II - Nézd meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját.</t>
+          <t>Teszt II - Nézze meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját.</t>
         </is>
       </c>
     </row>
@@ -622,12 +623,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ezt azért kérjük, hogy ellenőrizhessük a lakcímadatokat.</t>
+          <t>Ezt annak érdekében kérjük, hogy ellenőrizhessük a címadatait.</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;Ingyenes&lt;/strong&gt; projektet posztolni - mondd el szabadúszóinknak, hogy milyen munkát szeretnél, és percek alatt ajánlatokat kapsz!</t>
+          <t>&lt;strong&gt;Ingyenes&lt;/strong&gt; projektet közzétenni – mondja el szabadúszóinknak, hogy milyen munkát kell elvégezni, és perceken belül javaslatokat kap!</t>
         </is>
       </c>
     </row>
@@ -638,7 +639,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Ahhoz, hogy megváltoztathasd az országodat, kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazold a személyazonosságodat &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
+          <t>A lakóhelyének megváltoztatásához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazolja személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
         </is>
       </c>
     </row>
@@ -649,7 +650,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Ezt azért kérjük, hogy ellenőrizhessük a lakcímadatokat.</t>
+          <t>Ezt annak érdekében kérjük, hogy ellenőrizhessük a címadatait.</t>
         </is>
       </c>
     </row>

--- a/output/sample_doc/pipeline_summary.xlsx
+++ b/output/sample_doc/pipeline_summary.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,13 +456,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Értékelés 7.0 Teszt I: A cél az Ön általános szövegfordítási kompetenciájának meghatározása Teszt II: A cél az Ön kódokat/címkéket tartalmazó szövegek fordítási kompetenciájának meghatározása.</t>
+          <t>Értékelés 7.0 Teszt I: Az Ön általános fordítási kompetenciájának meghatározása Teszt II: Az Ön kompetenciájának meghatározása kódok/címkék tartalmazó szövegek fordításában.</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Értékelés 7.0
-Teszt I: A cél az Ön általános szövegfordítási kompetenciájának meghatározása.</t>
+Teszt I: Az Ön általános fordítási kompetenciájának meghatározása
+Teszt II: Az Ön kompetenciájának meghatározása kódokat/címkéket tartalmazó szövegek fordításában.</t>
         </is>
       </c>
     </row>
@@ -472,12 +473,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mielőtt lefordítaná, értse meg a szövegkörnyezetet.</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Teszt II: A cél az Ön kódokat/címkéket tartalmazó szövegek fordítási kompetenciájának meghatározása.</t>
+          <t>A fordítás előtt mindig értse meg a kontextust.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A fordítás előtt mindig értse meg a kontextust.</t>
         </is>
       </c>
     </row>
@@ -487,12 +488,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ne távolítsa el a kódokat a végső eredményből.</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Mielőtt lefordítaná, értse meg a szövegkörnyezetet.</t>
+          <t>Ne távolítsa el a kódokat a végső kimenetből.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ne távolítsa el a kódokat a végső kimenetből.</t>
         </is>
       </c>
     </row>
@@ -502,12 +503,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Teszt I - A folyamat egyszerű: csak másolja le az egyedi hivatkozási linkjét, és ossza meg barátaival e-mailben, szöveges üzenetben vagy bármilyen más preferált módon.</t>
+          <t>Teszt I
+A folyamat egyszerű: egyszerűen másolja le az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, szöveges üzenetben vagy bármilyen más preferált módszerrel.</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Ne távolítsa el a kódokat a végső eredményből.</t>
+          <t>Teszt I
+A folyamat egyszerű: egyszerűen másolja le az egyedi ajánló linkjét, és ossza meg barátaival e-mailben, szöveges üzenetben vagy bármilyen más preferált módszerrel.</t>
         </is>
       </c>
     </row>
@@ -517,12 +520,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mondja el, mit kell elvégezni, és perceken belül ajánlatokat kap helyi szabadúszóktól.</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Teszt I - A folyamat egyszerű: csak másolja le az egyedi hivatkozási linkjét, és ossza meg barátaival e-mailben, szöveges üzenetben vagy bármilyen más preferált módon.</t>
+          <t>Mondja el nekünk, mire van szüksége, és perceken belül ajánlatokat kap a helyi szabadúszóktól.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mondja el nekünk, mire van szüksége, és perceken belül ajánlatokat kap a helyi szabadúszóktól.</t>
         </is>
       </c>
     </row>
@@ -532,12 +535,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ne feledje, hogy a projekt közzététele ingyenes!</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Mondja el, mit kell elvégezni, és perceken belül ajánlatokat kap helyi szabadúszóktól.</t>
+          <t>Ne feledje, a projekt közzététele ingyenes!</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ne feledje, a projekt közzététele ingyenes!</t>
         </is>
       </c>
     </row>
@@ -550,9 +553,9 @@
           <t>Természetesen!</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Ne feledje, hogy a projekt közzététele ingyenes!</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Természetesen!</t>
         </is>
       </c>
     </row>
@@ -562,12 +565,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bármikor frissítheti tagságát, hogy azonnal extra előnyökhöz jusson.</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Természetesen!</t>
+          <t>Frissítse bármikor tagsági csomagját, hogy azonnal további előnyökhöz jusson.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Frissítse bármikor tagsági csomagját, hogy azonnal további előnyökhöz jusson.</t>
         </is>
       </c>
     </row>
@@ -577,12 +580,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagságának előnyeit annak lejáratáig, mielőtt átváltana egy alacsonyabb tagsági csomagra.</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Bármikor frissítheti tagságát, hogy azonnal extra előnyökhöz jusson.</t>
+          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagsága előnyeit a lejárat előtt, mielőtt áttérne az alacsonyabb tagsági csomagra.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagsága előnyeit a lejárat előtt, mielőtt áttérne az alacsonyabb tagsági csomagra.</t>
         </is>
       </c>
     </row>
@@ -592,13 +595,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Teszt II - Nézze meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját
-&lt;strong&gt;Ingyenes&lt;/strong&gt; projektet közzétenni – mondja el szabadúszóinknak, hogy milyen munkát kell elvégezni, és perceken belül javaslatokat kap!</t>
+          <t>Teszt II
+Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját
+&lt;strong&gt;Ingyenes&lt;/strong&gt; projektet közzétenni – mondja el szabadúszóinknak, milyen munkát szeretne, és perceken belül ajánlatokat kap!</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Alternatívaként csökkentheti tagságát, és továbbra is élvezheti a jelenlegi tagságának előnyeit annak lejáratáig, mielőtt átváltana egy alacsonyabb tagsági csomagra.</t>
+          <t>Teszt II
+Tekintse meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját
+&lt;strong&gt;Ingyenes&lt;/strong&gt; projektet közzétenni – mondja el szabadúszóinknak, milyen munkát szeretne, és perceken belül ajánlatokat kap!</t>
         </is>
       </c>
     </row>
@@ -608,12 +614,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A lakóhelyének megváltoztatásához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazolja személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Teszt II - Nézze meg &lt;x equiv-text="{{ username }}" id="INTERPOLATION"/&gt;'s teljes profilját.</t>
+          <t>Az országának módosításához szükséges, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazolja személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Az országának módosításához szükséges, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazolja személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
         </is>
       </c>
     </row>
@@ -623,34 +629,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ezt annak érdekében kérjük, hogy ellenőrizhessük a címadatait.</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt;Ingyenes&lt;/strong&gt; projektet közzétenni – mondja el szabadúszóinknak, hogy milyen munkát kell elvégezni, és perceken belül javaslatokat kap!</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>A lakóhelyének megváltoztatásához kérjük, hogy &lt;x equiv-text="&amp;lt;fl-link flTrackingLabel=&amp;quot;ProfileSettingsCountryVerifyIdentityLink&amp;quot; link=&amp;quot;/users/kyc/verification-center-home&amp;quot; &amp;gt;" id="START_TAG_FL_LINK" ctype="x-fl_link"/&gt; igazolja személyazonosságát &lt;x equiv-text="&amp;lt;/fl-link&amp;gt;" id="CLOSE_TAG_FL_LINK" ctype="x-fl_link"/&gt;.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Ezt annak érdekében kérjük, hogy ellenőrizhessük a címadatait.</t>
+          <t>Ez azért szükséges, hogy ellenőrizhessük címtartozásait.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ez azért szükséges, hogy ellenőrizhessük címtartozásait.</t>
         </is>
       </c>
     </row>
